--- a/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/111.業務フロー図(biz-op-03-01)商品管理_登録.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/111.業務フロー図(biz-op-03-01)商品管理_登録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AEB8D1-69CC-411D-A686-84E3F891E302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F274E2CF-E7F6-46BF-98DA-4B6D739D3FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="405" windowWidth="24375" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="840" windowWidth="24375" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>改訂履歴</t>
   </si>
@@ -199,6 +199,14 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>まだ商品在庫リストに登録されていない商品コードの場合、商品在庫リストへ空データを登録する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務フロー図</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -313,6 +321,13 @@
       <sz val="11"/>
       <name val="明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -524,7 +539,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -536,21 +551,6 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +588,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,6 +654,146 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="フローチャート: 磁気ディスク 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFDD32C-4E29-4E3C-B718-ACD362C887E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="6610350"/>
+          <a:ext cx="2000250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品在庫リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(product_stock_lists)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -652,7 +822,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5266"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5295"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3248,615 +3418,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2200276</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2762250</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="吹き出し: 角を丸めた四角形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6FA43E-D07C-44D0-85F2-7E93B7462809}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7934326" y="4772025"/>
-          <a:ext cx="6296024" cy="3333751"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -93060"/>
-            <a:gd name="adj2" fmla="val 57989"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>実運用について検討</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>基本的に仮登録したオペレーターの上席者が承認作業を行うべきだが、上席者が長期間不在となる場合が起こりえる。その場合、代理の権限を持つ人が代行するべきだが、代理権限を持つ人も運悪く不在ということが起こりえる。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>当プロジェクト内での運用方法について</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>当プロジェクトにおいては、以下のような運用体制を想定してシステムを構築していくこととする。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>１．仮登録・仮変更・仮削除された商品を承認する権限は、”商品管理権限”を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　持つ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>オペレーター全員に与える</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ものとする。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>２．実務を行うオペレーター内で、事前に商品登録の運用ルールを決めていただき、それに沿って</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　運用していただく。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　例）通常、上席者</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>が承認作業を行う。　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　　不在の場合は次の優先順位で承認作業を行う。　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>⇒（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>D</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>（ ）内は任意とする</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>３．システム的な制限は、「仮登録・仮変更を行ったオペレーター本人は、承認作業が行えない」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　のみとする。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>必ず複数名で作業を行わせることでオペレーターの不正を防止する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>64</xdr:row>
@@ -5516,6 +5077,851 @@
             </a:rPr>
             <a:t>フェーズ２以降で実装予定</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2333626</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8472D4B-7DFD-4866-A322-941A4F771FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943226" y="10782302"/>
+          <a:ext cx="5124450" cy="962024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9">
+            <a:alpha val="60000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>フェーズ２以降で実装予定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 折線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD9A0D5-753A-4DD2-AC48-F785762D4C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="4305300"/>
+          <a:ext cx="6619875" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90902"/>
+            <a:gd name="adj2" fmla="val -2434"/>
+            <a:gd name="adj3" fmla="val 98750"/>
+            <a:gd name="adj4" fmla="val -8466"/>
+            <a:gd name="adj5" fmla="val 110222"/>
+            <a:gd name="adj6" fmla="val -56451"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実運用について検討</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>基本的に仮登録したオペレーターの上席者が承認作業を行うべきだが、上席者が長期間不在となる場合が起こりえる。その場合、代理の権限を持つ人が代行するべきだが、代理権限を持つ人も運悪く不在ということが起こりえる。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当プロジェクト内での運用方法について</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当プロジェクトにおいては、以下のような運用体制を想定してシステムを構築していくこととする。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１．仮登録・仮変更・仮削除された商品を承認する権限は、”商品管理権限”を</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　持つ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>オペレーター全員に与える</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ものとする。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>２．実務を行うオペレーター内で、事前に商品登録の運用ルールを決めていただき、それに沿って</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　運用していただく。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　例）通常、上席者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が承認作業を行う。　</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　　不在の場合は次の優先順位で承認作業を行う。　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⇒（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（ ）内は任意とする</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>３．システム的な制限は、「仮登録・仮変更を行ったオペレーター本人は、承認作業が行えない」</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　のみとする。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>必ず複数名で作業を行わせることでオペレーターの不正を防止する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="吹き出し: 折線 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFB20BA-09EC-452C-9CC2-0B7FCBA33AE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953501" y="3400425"/>
+          <a:ext cx="2933700" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90902"/>
+            <a:gd name="adj2" fmla="val -2434"/>
+            <a:gd name="adj3" fmla="val 98750"/>
+            <a:gd name="adj4" fmla="val -8466"/>
+            <a:gd name="adj5" fmla="val 528030"/>
+            <a:gd name="adj6" fmla="val -43464"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>空レコード作成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>フェーズ２</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)(2020/2/29)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>まだ商品在庫リストに登録されていない商品コードの場合、商品在庫リストへ空データを登録する</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5872,456 +6278,462 @@
       <c r="D1" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6">
-        <f>ROW()-4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="23">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
         <v>43755</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8">
-        <f t="shared" ref="A5:A51" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="25">
+        <f t="shared" ref="A5:A51" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="29">
+        <v>43929</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
+      <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8">
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8">
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8">
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8">
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8">
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8">
+      <c r="B18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8">
+      <c r="B19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8">
+      <c r="B20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8">
+      <c r="B21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8">
+      <c r="B22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="25">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8">
+      <c r="B23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8">
+      <c r="B24" s="26"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8">
+      <c r="B25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8">
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8">
+      <c r="B27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="25">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8">
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="25">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8">
+      <c r="B29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="25">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8">
+      <c r="B30" s="26"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="25">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8">
+      <c r="B31" s="26"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="25">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="8">
+      <c r="B32" s="26"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="25">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8">
+      <c r="B33" s="26"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="25">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="8">
+      <c r="B34" s="26"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="25">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="8">
+      <c r="B35" s="26"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="25">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="8">
+      <c r="B36" s="26"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="8">
+      <c r="B37" s="26"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="25">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8">
+      <c r="B38" s="26"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="25">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="8">
+      <c r="B39" s="26"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="25">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8">
+      <c r="B40" s="26"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="25">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8">
+      <c r="B41" s="26"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="25">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="8">
+      <c r="B42" s="26"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="25">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="8">
+      <c r="B43" s="26"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="25">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8">
+      <c r="B44" s="26"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="25">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="8">
+      <c r="B45" s="26"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="25">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8">
+      <c r="B46" s="26"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="25">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8">
+      <c r="B47" s="26"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="25">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="8">
+      <c r="B48" s="26"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="25">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="10">
+      <c r="B49" s="26"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="25">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6339,601 +6751,601 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="37.625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="5" width="37.625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:5">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="17"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="17"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="17"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="17"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="17"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="17"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="17"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="17"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="17"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="17"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="17"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="17"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="17"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="17"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="17"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="17"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="17"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="17"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="17"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="17"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="17"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="17"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="17"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="17"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="17"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="17"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="17"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="17"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="17"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="17"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="17"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="17"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="17"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="17"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="17"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="17"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="17"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="17"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="17"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="17"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="17"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="17"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="17"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="17"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="17"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="17"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="17"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="17"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="17"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="17"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="17"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="17"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="17"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="17"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="17"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="17"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="17"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="17"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="17"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="18"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6953,84 +7365,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="63.5" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="25.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="63.5" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7041,5 +7453,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>